--- a/templates/Property_Card_Template.xlsx
+++ b/templates/Property_Card_Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WBIMS\AdminLTE\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF4644B-530F-4033-9FF8-FE43E3933AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="SemiExpan Proper Card" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -61,9 +60,6 @@
   </si>
   <si>
     <t>SEMI-EXPANDABLE PROPERTY CARD</t>
-  </si>
-  <si>
-    <t>Entity Name: Benguet State University - BOKOD CAMPUS                                                                    Fund Cluster:__________</t>
   </si>
   <si>
     <t>Semi-expendable Property: ________________________________________
@@ -71,22 +67,23 @@
   </si>
   <si>
     <t>Description:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity Name: Benguet State University - BOKOD CAMPUS                                                                   </t>
+  </si>
+  <si>
+    <t>Fund Cluster:</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,6 +103,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -349,85 +362,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,156 +739,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85091E3D-BF36-444A-8BAC-53CF604DD7CC}">
-  <dimension ref="B1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="D1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="2" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="4" t="s">
+      <c r="L6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="14"/>
@@ -868,9 +903,10 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="12"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="14"/>
@@ -881,9 +917,10 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="12"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="12"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="14"/>
@@ -894,9 +931,10 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="12"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="14"/>
@@ -907,9 +945,10 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="12"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="14"/>
@@ -920,9 +959,10 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="12"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="14"/>
@@ -933,9 +973,10 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="12"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="14"/>
@@ -946,9 +987,10 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="12"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="14"/>
@@ -959,9 +1001,10 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="12"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="14"/>
@@ -972,9 +1015,10 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="12"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="14"/>
@@ -985,9 +1029,10 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="12"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="14"/>
@@ -998,9 +1043,10 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="12"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="14"/>
@@ -1011,32 +1057,47 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="5"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
+  <mergeCells count="6">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>